--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFGH-WHO\Forms\BENIN\SCH STH\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C77E8B-F1E1-4253-9261-7E3058693535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="500"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -690,12 +691,6 @@
     <t>SCH+STH</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V1</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_2_child_v1</t>
-  </si>
-  <si>
     <t>concat(${p_site_code},'-',if(${p_num}&lt;10, concat('0', ${p_num}), ${p_num}))</t>
   </si>
   <si>
@@ -763,12 +758,18 @@
   </si>
   <si>
     <t>${p_collected_stool} = 'Non' and ${p_collected_urine} = 'Non'</t>
+  </si>
+  <si>
+    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V2</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_2_child_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1044,7 +1045,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,14 +1317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>158</v>
@@ -1625,7 +1626,7 @@
         <v>159</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>161</v>
@@ -1652,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>35</v>
@@ -1696,7 +1697,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>24</v>
@@ -1727,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>31</v>
@@ -1748,7 +1749,7 @@
         <v>198</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
@@ -1762,7 +1763,7 @@
         <v>169</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>170</v>
@@ -1777,7 +1778,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="30" t="s">
@@ -1791,7 +1792,7 @@
         <v>169</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>173</v>
@@ -1806,7 +1807,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -1818,7 +1819,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>175</v>
@@ -1832,10 +1833,10 @@
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
       <c r="K17" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M17" s="30" t="s">
         <v>16</v>
@@ -1885,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>37</v>
@@ -1904,7 +1905,7 @@
       <c r="I20" s="26"/>
       <c r="J20" s="27"/>
       <c r="K20" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="9" t="s">
@@ -1918,7 +1919,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>37</v>
@@ -1933,7 +1934,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="27"/>
       <c r="K21" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
@@ -1947,7 +1948,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>43</v>
@@ -1962,7 +1963,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="27"/>
       <c r="K22" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
@@ -1974,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>45</v>
@@ -1986,7 +1987,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="8"/>
       <c r="H23" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>47</v>
@@ -1995,7 +1996,7 @@
         <v>48</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
@@ -2007,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>49</v>
@@ -2022,7 +2023,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="14"/>
       <c r="K24" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -2034,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>51</v>
@@ -2049,7 +2050,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="14"/>
       <c r="K25" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -2061,7 +2062,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>53</v>
@@ -2151,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2802,11 +2803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2828,10 +2829,10 @@
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>

--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C77E8B-F1E1-4253-9261-7E3058693535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A2F275-7235-4D89-9A44-77FA04571031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="245">
   <si>
     <t>type</t>
   </si>
@@ -760,10 +760,46 @@
     <t>${p_collected_stool} = 'Non' and ${p_collected_urine} = 'Non'</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V2</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_2_child_v2</t>
+    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_2_child_v3</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>join(' ', ${p_espen_code_id})</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>bj_e</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Enfant</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${p_espen_code_id}))</t>
+  </si>
+  <si>
+    <t>end repeat</t>
   </si>
 </sst>
 </file>
@@ -1318,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,9 +1711,13 @@
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="C12" s="29"/>
       <c r="D12" s="10"/>
       <c r="E12" s="31"/>
@@ -1687,463 +1727,555 @@
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="M12" s="30"/>
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>23</v>
+    <row r="13" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="M13" s="30"/>
       <c r="N13" s="9"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
-      </c>
+    <row r="14" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="11"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M14" s="30"/>
       <c r="N14" s="9"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>170</v>
-      </c>
+    <row r="15" spans="1:16" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="31" t="s">
-        <v>171</v>
-      </c>
+      <c r="E15" s="31"/>
       <c r="F15" s="11"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="30"/>
       <c r="N15" s="9"/>
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="31" t="s">
-        <v>172</v>
-      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="11"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="36" t="s">
-        <v>225</v>
-      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="9"/>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="1:16" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>29</v>
+    <row r="17" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="M17" s="30" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="10"/>
+    </row>
+    <row r="18" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="9"/>
+      <c r="H18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="8"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
+    <row r="21" spans="1:16" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>37</v>
+        <v>216</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="11" t="s">
-        <v>41</v>
+      <c r="E21" s="35" t="s">
+        <v>174</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="E22" s="31"/>
       <c r="F22" s="11"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="8"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:16" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>45</v>
-      </c>
+    <row r="23" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="E23" s="31"/>
       <c r="F23" s="11"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K27" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B28" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="25"/>
       <c r="F28" s="14"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="37" t="s">
+        <v>229</v>
+      </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>59</v>
+    <row r="29" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>222</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="37" t="s">
+        <v>230</v>
+      </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2806,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A2F275-7235-4D89-9A44-77FA04571031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E058B7-E6A1-439D-8A1D-F8DB52141603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="248">
   <si>
     <t>type</t>
   </si>
@@ -760,12 +760,6 @@
     <t>${p_collected_stool} = 'Non' and ${p_collected_urine} = 'Non'</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_2_child_v3</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -778,9 +772,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>bj_e</t>
-  </si>
-  <si>
     <t>Children</t>
   </si>
   <si>
@@ -800,6 +791,24 @@
   </si>
   <si>
     <t>end repeat</t>
+  </si>
+  <si>
+    <t>This ID has already been entered!</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${p_espen_code_id}))</t>
+  </si>
+  <si>
+    <t>Cet identifiant est déjà utilisé</t>
+  </si>
+  <si>
+    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3.1</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_2_child_v3_1</t>
+  </si>
+  <si>
+    <t>bj_e2</t>
   </si>
 </sst>
 </file>
@@ -1354,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1381,7 @@
     <col min="5" max="5" width="47.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="47.375" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="40.25" customWidth="1"/>
     <col min="9" max="10" width="29.5" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
@@ -1605,148 +1614,148 @@
       <c r="N7" s="9"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>232</v>
+      </c>
       <c r="C8" s="29"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="M8" s="30"/>
       <c r="N8" s="9"/>
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>30</v>
+      <c r="A9" s="30" t="s">
+        <v>234</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>158</v>
+        <v>247</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>204</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="M9" s="30"/>
       <c r="N9" s="9"/>
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>161</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="31" t="s">
-        <v>160</v>
-      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="11"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="L10" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="30"/>
       <c r="N10" s="9"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>35</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="29"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="E11" s="31"/>
       <c r="F11" s="11"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" s="30"/>
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="29"/>
+    <row r="12" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="H12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>189</v>
+      </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="M12" s="30"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>238</v>
+        <v>210</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="35" t="s">
-        <v>239</v>
+      <c r="E13" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="8"/>
@@ -1755,40 +1764,42 @@
       <c r="J13" s="11"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="30"/>
+      <c r="M13" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="M14" s="30"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:16" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>242</v>
-      </c>
+    <row r="15" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="29"/>
       <c r="D15" s="10"/>
       <c r="E15" s="31"/>
@@ -1798,54 +1809,70 @@
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="L15" s="9"/>
       <c r="M15" s="30"/>
       <c r="N15" s="9"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="11"/>
+    <row r="16" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
+      <c r="H17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
         <v>16</v>
@@ -1853,36 +1880,30 @@
       <c r="N17" s="9"/>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
-        <v>32</v>
+      <c r="E18" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>198</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="36" t="s">
         <v>225</v>
       </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="30" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="9"/>
@@ -1893,14 +1914,14 @@
         <v>169</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="8"/>
@@ -1911,71 +1932,66 @@
         <v>225</v>
       </c>
       <c r="L19" s="9"/>
-      <c r="M19" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>169</v>
+    <row r="20" spans="1:16" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>173</v>
+        <v>216</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="31" t="s">
-        <v>172</v>
+      <c r="E20" s="35" t="s">
+        <v>174</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="K20" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>175</v>
-      </c>
+      <c r="P20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="35" t="s">
-        <v>174</v>
-      </c>
+      <c r="E21" s="31"/>
       <c r="F21" s="11"/>
       <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="22" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1994,48 +2010,60 @@
       <c r="N22" s="9"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="11"/>
+    <row r="23" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="37" t="s">
-        <v>226</v>
+      <c r="K24" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
@@ -2044,19 +2072,19 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="8"/>
@@ -2064,88 +2092,86 @@
       <c r="I25" s="26"/>
       <c r="J25" s="27"/>
       <c r="K25" s="36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="M25" s="9"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="K26" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:16" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="12"/>
@@ -2153,35 +2179,33 @@
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="37" t="s">
-        <v>230</v>
-      </c>
+      <c r="K29" s="8"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -2189,18 +2213,12 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>53</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="E30" s="25"/>
       <c r="F30" s="14"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2214,10 +2232,14 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="D31" s="23"/>
       <c r="E31" s="25"/>
       <c r="F31" s="14"/>
@@ -2232,11 +2254,11 @@
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>55</v>
+      <c r="A32" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>57</v>
@@ -2253,29 +2275,6 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2939,7 +2938,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2961,10 +2960,10 @@
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>

--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E058B7-E6A1-439D-8A1D-F8DB52141603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47148D-338F-4225-BAF2-170F62E8A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="248">
   <si>
     <t>type</t>
   </si>
@@ -802,13 +802,13 @@
     <t>Cet identifiant est déjà utilisé</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3.1</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_2_child_v3_1</t>
-  </si>
-  <si>
     <t>bj_e2</t>
+  </si>
+  <si>
+    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3.2</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202401_2_child_v3_2</t>
   </si>
 </sst>
 </file>
@@ -1365,11 +1365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1642,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>235</v>
@@ -1708,61 +1708,67 @@
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>30</v>
+    <row r="12" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>204</v>
+        <v>212</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>159</v>
+      <c r="A13" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="E13" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
+      <c r="H13" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="30" t="s">
         <v>16</v>
@@ -1772,24 +1778,26 @@
     </row>
     <row r="14" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="31" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="30" t="s">
         <v>16</v>
@@ -1798,50 +1806,48 @@
       <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="L15" s="9"/>
-      <c r="M15" s="30"/>
+      <c r="M15" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:16" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>27</v>
-      </c>
+    <row r="16" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="M16" s="30"/>
       <c r="N16" s="9"/>
       <c r="O16" s="8"/>
     </row>
@@ -2937,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2960,10 +2966,10 @@
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>

--- a/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/bj_sch_sth_impact_202401_2_child_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47148D-338F-4225-BAF2-170F62E8A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CAEAC0-AAB9-47CA-9D7B-54A331BE496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -802,13 +802,13 @@
     <t>Cet identifiant est déjà utilisé</t>
   </si>
   <si>
-    <t>bj_e2</t>
-  </si>
-  <si>
     <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3.2</t>
   </si>
   <si>
     <t>bj_sch_sth_impact_202401_2_child_v3_2</t>
+  </si>
+  <si>
+    <t>bj_e2_1</t>
   </si>
 </sst>
 </file>
@@ -1365,11 +1365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1642,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>235</v>
@@ -2943,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
